--- a/data/stressor-response_fixed_ARTR.xlsx
+++ b/data/stressor-response_fixed_ARTR.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DDBCE57-77D2-4E02-936D-673022E8C9D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-2820" yWindow="12492" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -25,17 +26,26 @@
     <sheet name="Habitat_loss" sheetId="22" r:id="rId16"/>
     <sheet name="blank" sheetId="12" r:id="rId17"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="32">
   <si>
     <t>Stressors</t>
   </si>
@@ -127,19 +137,7 @@
     <t>Total_Mortality</t>
   </si>
   <si>
-    <t>Mortality minus 0.35 (natural)</t>
-  </si>
-  <si>
     <t>step</t>
-  </si>
-  <si>
-    <t>The curve has been redrawn to represent the relationship between footprint percentage</t>
-  </si>
-  <si>
-    <t>and system capacity.  The intermediate step of footprint to hydrologic change to system capacity</t>
-  </si>
-  <si>
-    <t>has been removed.</t>
   </si>
   <si>
     <t>Foot_flow</t>
@@ -148,7 +146,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -214,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
@@ -230,12 +228,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13976,7 +13968,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -14011,7 +14009,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -14048,7 +14052,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -14072,20 +14082,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>302895</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>100965</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>96202</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -14122,7 +14138,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -14159,7 +14181,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -14196,7 +14224,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -14233,7 +14267,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -14270,7 +14310,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -14300,14 +14346,20 @@
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>2857</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -14344,7 +14396,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -14381,7 +14439,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -14418,7 +14482,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -14455,7 +14525,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -14492,7 +14568,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -14529,7 +14611,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -14811,23 +14899,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="2"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="2"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -14844,7 +14932,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -14861,7 +14949,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -14878,7 +14966,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>29</v>
       </c>
@@ -14895,7 +14983,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -14912,7 +15000,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -14926,10 +15014,10 @@
         <v>7</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -14946,7 +15034,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -14963,7 +15051,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -14980,7 +15068,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
@@ -14997,7 +15085,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -15015,7 +15103,7 @@
       </c>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -15032,9 +15120,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>2</v>
@@ -15049,7 +15137,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
@@ -15066,7 +15154,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
@@ -15080,10 +15168,10 @@
         <v>7</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
@@ -15100,7 +15188,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F18" s="3"/>
     </row>
   </sheetData>
@@ -15113,22 +15201,22 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
@@ -15146,7 +15234,7 @@
       </c>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -15163,7 +15251,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1.5</v>
       </c>
@@ -15180,7 +15268,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2.5</v>
       </c>
@@ -15197,7 +15285,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4.4000000000000004</v>
       </c>
@@ -15214,7 +15302,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>10.8</v>
       </c>
@@ -15242,20 +15330,20 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>15</v>
       </c>
@@ -15273,7 +15361,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>100</v>
       </c>
@@ -15290,7 +15378,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>90</v>
       </c>
@@ -15307,7 +15395,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>80</v>
       </c>
@@ -15324,7 +15412,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>70</v>
       </c>
@@ -15341,7 +15429,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>60</v>
       </c>
@@ -15358,7 +15446,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>50</v>
       </c>
@@ -15375,7 +15463,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>40</v>
       </c>
@@ -15392,7 +15480,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>30</v>
       </c>
@@ -15409,7 +15497,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -15426,7 +15514,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -15443,7 +15531,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0</v>
       </c>
@@ -15471,22 +15559,22 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>16</v>
       </c>
@@ -15504,7 +15592,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>100</v>
       </c>
@@ -15521,7 +15609,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>90</v>
       </c>
@@ -15538,7 +15626,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>80</v>
       </c>
@@ -15555,7 +15643,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>70</v>
       </c>
@@ -15572,7 +15660,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>60</v>
       </c>
@@ -15589,7 +15677,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>50</v>
       </c>
@@ -15606,7 +15694,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>40</v>
       </c>
@@ -15623,7 +15711,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>30</v>
       </c>
@@ -15640,7 +15728,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -15657,7 +15745,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -15674,7 +15762,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0</v>
       </c>
@@ -15702,27 +15790,26 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="F1" sqref="F1:P1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>6</v>
@@ -15736,12 +15823,8 @@
       <c r="E1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>100</v>
       </c>
@@ -15758,7 +15841,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>90</v>
       </c>
@@ -15775,7 +15858,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>80</v>
       </c>
@@ -15792,7 +15875,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>70</v>
       </c>
@@ -15809,7 +15892,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>60</v>
       </c>
@@ -15826,7 +15909,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>50</v>
       </c>
@@ -15843,7 +15926,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>45</v>
       </c>
@@ -15860,7 +15943,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>35</v>
       </c>
@@ -15877,7 +15960,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>30.5</v>
       </c>
@@ -15894,7 +15977,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>28</v>
       </c>
@@ -15911,7 +15994,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>26</v>
       </c>
@@ -15928,7 +16011,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>24</v>
       </c>
@@ -15945,7 +16028,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>22</v>
       </c>
@@ -15962,7 +16045,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>20</v>
       </c>
@@ -15979,7 +16062,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0</v>
       </c>
@@ -15994,21 +16077,6 @@
       </c>
       <c r="E16">
         <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H19" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -16022,22 +16090,22 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>25</v>
       </c>
@@ -16055,7 +16123,7 @@
       </c>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -16072,7 +16140,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1.17</v>
       </c>
@@ -16089,7 +16157,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4.3</v>
       </c>
@@ -16106,7 +16174,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>13</v>
       </c>
@@ -16123,7 +16191,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>20</v>
       </c>
@@ -16140,7 +16208,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>31</v>
       </c>
@@ -16159,22 +16227,22 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>26</v>
       </c>
@@ -16192,7 +16260,7 @@
       </c>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -16209,7 +16277,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -16226,7 +16294,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -16243,7 +16311,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -16260,7 +16328,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -16277,7 +16345,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -16305,22 +16373,22 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>27</v>
       </c>
@@ -16338,7 +16406,7 @@
       </c>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -16355,7 +16423,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>20</v>
       </c>
@@ -16372,7 +16440,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>40</v>
       </c>
@@ -16389,7 +16457,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>60</v>
       </c>
@@ -16406,7 +16474,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>80</v>
       </c>
@@ -16423,7 +16491,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>100</v>
       </c>
@@ -16451,22 +16519,22 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -16484,7 +16552,7 @@
       </c>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -16501,7 +16569,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -16518,7 +16586,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -16535,7 +16603,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -16552,7 +16620,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -16580,22 +16648,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E20"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
@@ -16613,7 +16681,7 @@
       </c>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -16630,7 +16698,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -16647,7 +16715,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -16664,7 +16732,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -16681,7 +16749,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -16698,7 +16766,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -16715,7 +16783,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -16732,7 +16800,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -16749,7 +16817,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -16766,7 +16834,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -16783,7 +16851,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -16800,7 +16868,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -16817,7 +16885,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -16834,7 +16902,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -16851,7 +16919,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -16868,7 +16936,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -16885,7 +16953,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -16902,7 +16970,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -16919,7 +16987,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -16947,22 +17015,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
@@ -16980,7 +17048,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -16997,7 +17065,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>20</v>
       </c>
@@ -17014,7 +17082,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>40</v>
       </c>
@@ -17031,7 +17099,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>60</v>
       </c>
@@ -17048,7 +17116,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>80</v>
       </c>
@@ -17065,7 +17133,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>100</v>
       </c>
@@ -17093,22 +17161,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="F1" sqref="F1:S1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
@@ -17124,12 +17191,8 @@
       <c r="E1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="J1" t="s">
-        <v>30</v>
-      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.35</v>
       </c>
@@ -17145,12 +17208,8 @@
       <c r="E2">
         <v>100</v>
       </c>
-      <c r="J2">
-        <f>1-(1-A2)/(1-0.35)</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>0.38250000000000006</v>
       </c>
@@ -17166,12 +17225,8 @@
       <c r="E3">
         <v>100</v>
       </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J10" si="0">1-(1-A3)/(1-0.35)</f>
-        <v>5.0000000000000155E-2</v>
-      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>0.41499999999999992</v>
       </c>
@@ -17187,12 +17242,8 @@
       <c r="E4">
         <v>100</v>
       </c>
-      <c r="J4">
-        <f t="shared" si="0"/>
-        <v>9.9999999999999867E-2</v>
-      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>0.44750000000000001</v>
       </c>
@@ -17208,12 +17259,8 @@
       <c r="E5">
         <v>100</v>
       </c>
-      <c r="J5">
-        <f t="shared" si="0"/>
-        <v>0.15000000000000002</v>
-      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>0.48</v>
       </c>
@@ -17229,12 +17276,8 @@
       <c r="E6">
         <v>100</v>
       </c>
-      <c r="J6">
-        <f t="shared" si="0"/>
-        <v>0.19999999999999996</v>
-      </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>0.51249999999999996</v>
       </c>
@@ -17250,12 +17293,8 @@
       <c r="E7">
         <v>100</v>
       </c>
-      <c r="J7">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>0.54500000000000004</v>
       </c>
@@ -17271,12 +17310,8 @@
       <c r="E8">
         <v>100</v>
       </c>
-      <c r="J8">
-        <f t="shared" si="0"/>
-        <v>0.30000000000000004</v>
-      </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>0.5774999999999999</v>
       </c>
@@ -17292,12 +17327,8 @@
       <c r="E9">
         <v>100</v>
       </c>
-      <c r="J9">
-        <f t="shared" si="0"/>
-        <v>0.34999999999999987</v>
-      </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>0.61</v>
       </c>
@@ -17312,10 +17343,6 @@
       </c>
       <c r="E10">
         <v>100</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="0"/>
-        <v>0.4</v>
       </c>
     </row>
   </sheetData>
@@ -17329,22 +17356,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>18</v>
       </c>
@@ -17362,7 +17389,7 @@
       </c>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -17379,7 +17406,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.01</v>
       </c>
@@ -17396,7 +17423,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <f>A3+0.06175</f>
         <v>7.1749999999999994E-2</v>
@@ -17414,7 +17441,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <f t="shared" ref="A5:A6" si="0">A4+0.06175</f>
         <v>0.13350000000000001</v>
@@ -17432,7 +17459,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>0.19525000000000001</v>
@@ -17450,7 +17477,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.25700000000000001</v>
       </c>
@@ -17467,7 +17494,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <f>A7+0.06175</f>
         <v>0.31874999999999998</v>
@@ -17496,22 +17523,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>20</v>
       </c>
@@ -17529,7 +17556,7 @@
       </c>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -17546,7 +17573,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -17563,7 +17590,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -17580,7 +17607,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -17597,7 +17624,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -17614,7 +17641,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -17642,22 +17669,22 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>21</v>
       </c>
@@ -17675,7 +17702,7 @@
       </c>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -17692,7 +17719,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>20</v>
       </c>
@@ -17709,7 +17736,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>40</v>
       </c>
@@ -17726,7 +17753,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>60</v>
       </c>
@@ -17743,7 +17770,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>80</v>
       </c>
@@ -17760,7 +17787,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>100</v>
       </c>
@@ -17788,22 +17815,22 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>22</v>
       </c>
@@ -17821,7 +17848,7 @@
       </c>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -17838,7 +17865,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>20</v>
       </c>
@@ -17855,7 +17882,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>40</v>
       </c>
@@ -17872,7 +17899,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>60</v>
       </c>
@@ -17889,7 +17916,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>80</v>
       </c>
@@ -17906,7 +17933,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>100</v>
       </c>
@@ -17934,22 +17961,22 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
@@ -17967,7 +17994,7 @@
       </c>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.01</v>
       </c>
@@ -17984,7 +18011,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.06</v>
       </c>
@@ -18001,7 +18028,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1.1000000000000001</v>
       </c>
@@ -18018,7 +18045,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>14.2</v>
       </c>
@@ -18035,7 +18062,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>978</v>
       </c>

--- a/data/stressor-response_fixed_ARTR.xlsx
+++ b/data/stressor-response_fixed_ARTR.xlsx
@@ -1,30 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DDBCE57-77D2-4E02-936D-673022E8C9D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A55D52B-A928-4781-B74E-FFC409F02225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2820" yWindow="12492" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2820" yWindow="12492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
-    <sheet name="Temperature" sheetId="1" r:id="rId2"/>
-    <sheet name="Nat_lim_other" sheetId="8" r:id="rId3"/>
-    <sheet name="Total_Mortality" sheetId="10" r:id="rId4"/>
-    <sheet name="Fragmentation" sheetId="13" r:id="rId5"/>
-    <sheet name="Barrier_dams" sheetId="14" r:id="rId6"/>
-    <sheet name="BKTR" sheetId="15" r:id="rId7"/>
-    <sheet name="NN_RNTR" sheetId="16" r:id="rId8"/>
-    <sheet name="Phosphorus" sheetId="17" r:id="rId9"/>
-    <sheet name="Sediment" sheetId="18" r:id="rId10"/>
-    <sheet name="Feb_flow" sheetId="6" r:id="rId11"/>
-    <sheet name="Aug_flow" sheetId="9" r:id="rId12"/>
-    <sheet name="Foot_flow" sheetId="19" r:id="rId13"/>
-    <sheet name="Selenium" sheetId="20" r:id="rId14"/>
-    <sheet name="WD" sheetId="21" r:id="rId15"/>
-    <sheet name="Habitat_loss" sheetId="22" r:id="rId16"/>
-    <sheet name="blank" sheetId="12" r:id="rId17"/>
+    <sheet name="Temperature_adult" sheetId="1" r:id="rId2"/>
+    <sheet name="Temperature_parr" sheetId="23" r:id="rId3"/>
+    <sheet name="Nat_lim_other" sheetId="8" r:id="rId4"/>
+    <sheet name="Total_Mortality" sheetId="10" r:id="rId5"/>
+    <sheet name="Fragmentation" sheetId="13" r:id="rId6"/>
+    <sheet name="Barrier_dams" sheetId="14" r:id="rId7"/>
+    <sheet name="BKTR" sheetId="15" r:id="rId8"/>
+    <sheet name="NN_RNTR" sheetId="16" r:id="rId9"/>
+    <sheet name="Phosphorus" sheetId="17" r:id="rId10"/>
+    <sheet name="Sediment" sheetId="18" r:id="rId11"/>
+    <sheet name="Feb_flow" sheetId="6" r:id="rId12"/>
+    <sheet name="Aug_flow" sheetId="9" r:id="rId13"/>
+    <sheet name="Foot_flow" sheetId="19" r:id="rId14"/>
+    <sheet name="Selenium" sheetId="20" r:id="rId15"/>
+    <sheet name="WD" sheetId="21" r:id="rId16"/>
+    <sheet name="Habitat_loss" sheetId="22" r:id="rId17"/>
+    <sheet name="Spring_flow_alevin" sheetId="24" r:id="rId18"/>
+    <sheet name="Spring_flow_sub" sheetId="25" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="46">
   <si>
     <t>Stressors</t>
   </si>
@@ -104,9 +106,6 @@
     <t>Fragmentation</t>
   </si>
   <si>
-    <t>Stressor</t>
-  </si>
-  <si>
     <t>Barrier_dams</t>
   </si>
   <si>
@@ -142,6 +141,51 @@
   <si>
     <t>Foot_flow</t>
   </si>
+  <si>
+    <t>Stressor_cat</t>
+  </si>
+  <si>
+    <t>Life_stages</t>
+  </si>
+  <si>
+    <t>Parameters</t>
+  </si>
+  <si>
+    <t>Temperature_adult</t>
+  </si>
+  <si>
+    <t>adult</t>
+  </si>
+  <si>
+    <t>survival</t>
+  </si>
+  <si>
+    <t>Temperature_parr</t>
+  </si>
+  <si>
+    <t>parr</t>
+  </si>
+  <si>
+    <t>fry_parr</t>
+  </si>
+  <si>
+    <t>capacity</t>
+  </si>
+  <si>
+    <t>Spring_flow_alevin</t>
+  </si>
+  <si>
+    <t>Spring_flow</t>
+  </si>
+  <si>
+    <t>alevin</t>
+  </si>
+  <si>
+    <t>Spring_flow_sub</t>
+  </si>
+  <si>
+    <t>sub_adult</t>
+  </si>
 </sst>
 </file>
 
@@ -171,7 +215,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -187,6 +231,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -212,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
@@ -220,7 +270,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -228,6 +277,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -294,7 +349,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Temperature!$A$2:$A$20</c:f>
+              <c:f>Temperature_adult!$A$2:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -360,7 +415,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Temperature!$B$2:$B$20</c:f>
+              <c:f>Temperature_adult!$B$2:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -401,19 +456,19 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>100</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>50</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>25</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0</c:v>
@@ -662,83 +717,47 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Feb_flow!$A$2:$A$12</c:f>
+              <c:f>Sediment!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>90</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>80</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>70</c:v>
+                  <c:v>4.4000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>10.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feb_flow!$B$2:$B$12</c:f>
+              <c:f>Sediment!$B$2:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>90</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>80</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>70</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -747,7 +766,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9C34-4731-BA9D-CDDF3F50B17C}"/>
+              <c16:uniqueId val="{00000000-2906-457C-B3DA-D046BA28885C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -766,7 +785,7 @@
         <c:axId val="522196208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="100"/>
+          <c:max val="15"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -982,7 +1001,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Aug_flow!$A$2:$A$12</c:f>
+              <c:f>Feb_flow!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1024,7 +1043,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Aug_flow!$B$2:$B$12</c:f>
+              <c:f>Feb_flow!$B$2:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1032,31 +1051,31 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>96</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>90</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>82</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>74</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>64</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>54</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>28</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.6</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -1067,7 +1086,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-70BC-4B71-B0A8-C9FD2D6C8F50}"/>
+              <c16:uniqueId val="{00000000-9C34-4731-BA9D-CDDF3F50B17C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1302,6 +1321,326 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
+              <c:f>Aug_flow!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Aug_flow!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-70BC-4B71-B0A8-C9FD2D6C8F50}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="522196208"/>
+        <c:axId val="568533128"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="522196208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="568533128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="568533128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="522196208"/>
+        <c:crossesAt val="1.0000000000000002E-2"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
               <c:f>Foot_flow!$A$2:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -1595,7 +1934,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1885,7 +2224,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2164,7 +2503,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2248,16 +2587,16 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>80</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2454,289 +2793,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>blank!$A$2:$A$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>blank!$B$2:$B$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3F14-4D2C-9FFE-1D3988A4AA9B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="522196208"/>
-        <c:axId val="568533128"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="522196208"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="100"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="568533128"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="568533128"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="522196208"/>
-        <c:crossesAt val="1.0000000000000002E-2"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -2786,54 +2842,132 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Nat_lim_other!$A$2:$A$7</c:f>
+              <c:f>Temperature_parr!$A$2:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>60</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>80</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100</c:v>
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Nat_lim_other!$B$2:$B$7</c:f>
+              <c:f>Temperature_parr!$B$2:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>60</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>80</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2841,7 +2975,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7177-42D7-81BD-43CE336B520E}"/>
+              <c16:uniqueId val="{00000000-A8F5-44AA-8842-3905F73252B7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2860,6 +2994,7 @@
         <c:axId val="522196208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="18"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -3075,72 +3210,54 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Total_Mortality!$A$2:$A$10</c:f>
+              <c:f>Nat_lim_other!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.35</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.38250000000000006</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.41499999999999992</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.44750000000000001</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.48</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.51249999999999996</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.54500000000000004</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.5774999999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.61</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Total_Mortality!$B$2:$B$10</c:f>
+              <c:f>Nat_lim_other!$B$2:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3148,7 +3265,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B998-480B-9438-406D17C2FD64}"/>
+              <c16:uniqueId val="{00000000-7177-42D7-81BD-43CE336B520E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3382,6 +3499,313 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
+              <c:f>Total_Mortality!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.38250000000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.41499999999999992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.44750000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.51249999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.54500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5774999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.61</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Total_Mortality!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B998-480B-9438-406D17C2FD64}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="522196208"/>
+        <c:axId val="568533128"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="522196208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="568533128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="568533128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="522196208"/>
+        <c:crossesAt val="1.0000000000000002E-2"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
               <c:f>Fragmentation!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -3629,7 +4053,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3908,7 +4332,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4013,295 +4437,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9202-4214-9695-20AB5109FD12}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="522196208"/>
-        <c:axId val="568533128"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="522196208"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="568533128"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="568533128"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="100"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="522196208"/>
-        <c:crossesAt val="1.0000000000000002E-2"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>NN_RNTR!$A$2:$A$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>NN_RNTR!$B$2:$B$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6130-4E53-94A6-CC6815DA61CE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4535,47 +4670,53 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Phosphorus!$A$2:$A$6</c:f>
+              <c:f>NN_RNTR!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.01</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.06</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1000000000000001</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.2</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>978</c:v>
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Phosphorus!$B$2:$B$6</c:f>
+              <c:f>NN_RNTR!$B$2:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>70</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4584,7 +4725,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5412-43D8-AC99-A1CB2D6798E2}"/>
+              <c16:uniqueId val="{00000000-6130-4E53-94A6-CC6815DA61CE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4602,9 +4743,7 @@
       <c:valAx>
         <c:axId val="522196208"/>
         <c:scaling>
-          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:max val="1000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -4820,31 +4959,31 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sediment!$A$2:$A$6</c:f>
+              <c:f>Phosphorus!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5</c:v>
+                  <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.4000000000000004</c:v>
+                  <c:v>14.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.8</c:v>
+                  <c:v>978</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sediment!$B$2:$B$6</c:f>
+              <c:f>Phosphorus!$B$2:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4869,7 +5008,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2906-457C-B3DA-D046BA28885C}"/>
+              <c16:uniqueId val="{00000000-5412-43D8-AC99-A1CB2D6798E2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4887,8 +5026,9 @@
       <c:valAx>
         <c:axId val="522196208"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:max val="15"/>
+          <c:max val="1000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -13996,6 +14136,49 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
       <xdr:row>13</xdr:row>
@@ -14035,7 +14218,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -14078,7 +14261,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -14121,7 +14304,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -14164,7 +14347,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -14207,7 +14390,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -14250,27 +14433,27 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:colOff>240030</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>2857</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00A8C639-354B-4980-987F-E5A4AEA03139}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14293,7 +14476,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -14336,7 +14519,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -14379,7 +14562,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -14422,7 +14605,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -14465,7 +14648,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -14508,7 +14691,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -14551,7 +14734,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -14572,49 +14755,6 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14900,296 +15040,481 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="2"/>
-    <col min="4" max="4" width="12.88671875" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" customWidth="1"/>
+    <col min="1" max="1" width="26.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="2"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="G11" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="F15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="D16" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="E16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D17" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F17" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F18" s="3"/>
+      <c r="G17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15201,6 +15526,135 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0.01</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0.06</v>
+      </c>
+      <c r="B3">
+        <v>70</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B4">
+        <v>50</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>14.2</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>978</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;11&amp;K000000Classification: Protected A</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -15217,19 +15671,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F1" s="1"/>
@@ -15329,7 +15783,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
@@ -15344,19 +15798,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G1" s="1"/>
@@ -15558,7 +16012,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
@@ -15575,19 +16029,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G1" s="1"/>
@@ -15776,306 +16230,6 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;11&amp;K000000Classification: Protected A</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <sheetPr>
-    <tabColor theme="0"/>
-  </sheetPr>
-  <dimension ref="A1:E16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:P1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>100</v>
-      </c>
-      <c r="B2">
-        <v>20</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>90</v>
-      </c>
-      <c r="B3">
-        <v>20</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>80</v>
-      </c>
-      <c r="B4">
-        <v>24</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>70</v>
-      </c>
-      <c r="B5">
-        <v>30</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>60</v>
-      </c>
-      <c r="B6">
-        <v>40</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>50</v>
-      </c>
-      <c r="B7">
-        <v>60</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>45</v>
-      </c>
-      <c r="B8">
-        <v>70</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>35</v>
-      </c>
-      <c r="B9">
-        <v>84</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>30.5</v>
-      </c>
-      <c r="B10">
-        <v>90</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>28</v>
-      </c>
-      <c r="B11">
-        <v>92</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>26</v>
-      </c>
-      <c r="B12">
-        <v>94</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>24</v>
-      </c>
-      <c r="B13">
-        <v>96</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>22</v>
-      </c>
-      <c r="B14">
-        <v>98</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>100</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>0</v>
-      </c>
-      <c r="B16">
-        <v>100</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
         <v>100</v>
       </c>
     </row>
@@ -16090,6 +16244,306 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <sheetPr>
+    <tabColor theme="0"/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>90</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>80</v>
+      </c>
+      <c r="B4">
+        <v>24</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>70</v>
+      </c>
+      <c r="B5">
+        <v>30</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>60</v>
+      </c>
+      <c r="B6">
+        <v>40</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <v>60</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>45</v>
+      </c>
+      <c r="B8">
+        <v>70</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>35</v>
+      </c>
+      <c r="B9">
+        <v>84</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>30.5</v>
+      </c>
+      <c r="B10">
+        <v>90</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>28</v>
+      </c>
+      <c r="B11">
+        <v>92</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>26</v>
+      </c>
+      <c r="B12">
+        <v>94</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>24</v>
+      </c>
+      <c r="B13">
+        <v>96</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>98</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>100</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>100</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;11&amp;K000000Classification: Protected A</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -16106,19 +16560,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F1" s="1"/>
@@ -16226,11 +16680,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -16243,19 +16697,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F1" s="1"/>
@@ -16372,12 +16826,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16389,19 +16843,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F1" s="1"/>
@@ -16414,7 +16868,7 @@
         <v>100</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -16428,10 +16882,10 @@
         <v>20</v>
       </c>
       <c r="B3">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -16445,10 +16899,10 @@
         <v>40</v>
       </c>
       <c r="B4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -16462,10 +16916,10 @@
         <v>60</v>
       </c>
       <c r="B5">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -16479,10 +16933,10 @@
         <v>80</v>
       </c>
       <c r="B6">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -16499,7 +16953,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -16518,12 +16972,662 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:F6"/>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57FA864D-7D9A-4124-BBDE-66EA81ABD765}">
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>50</v>
+      </c>
+      <c r="B3">
+        <v>40</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>100</v>
+      </c>
+      <c r="B4">
+        <v>60</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>150</v>
+      </c>
+      <c r="B5">
+        <v>75</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>200</v>
+      </c>
+      <c r="B6">
+        <v>90</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>250</v>
+      </c>
+      <c r="B7">
+        <v>100</v>
+      </c>
+      <c r="C7">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>300</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>350</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>400</v>
+      </c>
+      <c r="B10">
+        <v>100</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>450</v>
+      </c>
+      <c r="B11">
+        <v>100</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>500</v>
+      </c>
+      <c r="B12">
+        <v>100</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>550</v>
+      </c>
+      <c r="B13">
+        <v>100</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>600</v>
+      </c>
+      <c r="B14">
+        <v>90</v>
+      </c>
+      <c r="C14">
+        <v>20</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>650</v>
+      </c>
+      <c r="B15">
+        <v>75</v>
+      </c>
+      <c r="C15">
+        <v>20</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>700</v>
+      </c>
+      <c r="B16">
+        <v>60</v>
+      </c>
+      <c r="C16">
+        <v>20</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>750</v>
+      </c>
+      <c r="B17">
+        <v>40</v>
+      </c>
+      <c r="C17">
+        <v>20</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>800</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>20</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A82EBC21-D1BB-4053-A20F-EBCCD4B5FB3D}">
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.77734375" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>50</v>
+      </c>
+      <c r="B3">
+        <v>40</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>100</v>
+      </c>
+      <c r="B4">
+        <v>60</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>150</v>
+      </c>
+      <c r="B5">
+        <v>75</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>200</v>
+      </c>
+      <c r="B6">
+        <v>90</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>250</v>
+      </c>
+      <c r="B7">
+        <v>100</v>
+      </c>
+      <c r="C7">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>300</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>350</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>400</v>
+      </c>
+      <c r="B10">
+        <v>100</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>450</v>
+      </c>
+      <c r="B11">
+        <v>100</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>500</v>
+      </c>
+      <c r="B12">
+        <v>100</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>550</v>
+      </c>
+      <c r="B13">
+        <v>100</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>600</v>
+      </c>
+      <c r="B14">
+        <v>90</v>
+      </c>
+      <c r="C14">
+        <v>20</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>650</v>
+      </c>
+      <c r="B15">
+        <v>75</v>
+      </c>
+      <c r="C15">
+        <v>20</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>700</v>
+      </c>
+      <c r="B16">
+        <v>60</v>
+      </c>
+      <c r="C16">
+        <v>20</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>750</v>
+      </c>
+      <c r="B17">
+        <v>40</v>
+      </c>
+      <c r="C17">
+        <v>20</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>800</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>20</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16535,19 +17639,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F1" s="1"/>
@@ -16560,7 +17664,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -16577,7 +17681,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -16594,7 +17698,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -16611,7 +17715,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -16628,136 +17732,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;11&amp;K000000Classification: Protected A</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -16774,7 +17749,7 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -16791,7 +17766,7 @@
         <v>100</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -16808,7 +17783,7 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -16825,7 +17800,7 @@
         <v>100</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -16842,7 +17817,7 @@
         <v>100</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -16859,7 +17834,7 @@
         <v>100</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -16876,7 +17851,7 @@
         <v>100</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -16890,10 +17865,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -16910,7 +17885,7 @@
         <v>75</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -16924,10 +17899,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -16941,10 +17916,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -16958,10 +17933,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -16978,7 +17953,7 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -16995,7 +17970,7 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -17015,11 +17990,371 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A26D4A31-6A35-4D57-A616-293E0BA9AFE1}">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="2" max="2" width="32.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>100</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>100</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>100</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>100</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>100</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>100</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>100</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>90</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>75</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>60</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>40</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17031,19 +18366,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G1" s="1"/>
@@ -17147,201 +18482,6 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;11&amp;K000000Classification: Protected A</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:S1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0.35</v>
-      </c>
-      <c r="B2">
-        <v>100</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
-        <v>0.38250000000000006</v>
-      </c>
-      <c r="B3">
-        <v>100</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
-        <v>0.41499999999999992</v>
-      </c>
-      <c r="B4">
-        <v>60</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
-        <v>0.44750000000000001</v>
-      </c>
-      <c r="B5">
-        <v>40</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
-        <v>0.48</v>
-      </c>
-      <c r="B6">
-        <v>20</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
-        <v>0.51249999999999996</v>
-      </c>
-      <c r="B7">
-        <v>15</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
-        <v>0.54500000000000004</v>
-      </c>
-      <c r="B8">
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
-        <v>0.5774999999999999</v>
-      </c>
-      <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
-        <v>0.61</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
         <v>100</v>
       </c>
     </row>
@@ -17356,6 +18496,201 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0.35</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>0.38250000000000006</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>0.41499999999999992</v>
+      </c>
+      <c r="B4">
+        <v>60</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>0.44750000000000001</v>
+      </c>
+      <c r="B5">
+        <v>40</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>0.48</v>
+      </c>
+      <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>0.51249999999999996</v>
+      </c>
+      <c r="B7">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>0.5774999999999999</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>0.61</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;11&amp;K000000Classification: Protected A</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
@@ -17372,19 +18707,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F1" s="1"/>
@@ -17522,7 +18857,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -17539,19 +18874,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F1" s="1"/>
@@ -17668,7 +19003,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -17685,19 +19020,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F1" s="1"/>
@@ -17814,7 +19149,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -17831,19 +19166,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F1" s="1"/>
@@ -17947,135 +19282,6 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;11&amp;K000000Classification: Protected A</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0.01</v>
-      </c>
-      <c r="B2">
-        <v>100</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>0.06</v>
-      </c>
-      <c r="B3">
-        <v>70</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B4">
-        <v>50</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>14.2</v>
-      </c>
-      <c r="B5">
-        <v>20</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>978</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
         <v>100</v>
       </c>
     </row>

--- a/data/stressor-response_fixed_ARTR.xlsx
+++ b/data/stressor-response_fixed_ARTR.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A55D52B-A928-4781-B74E-FFC409F02225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A01BE8E-87C0-4396-B7FB-A276BD69BF12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2820" yWindow="12492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -15043,7 +15043,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17627,7 +17627,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18500,7 +18500,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18862,7 +18862,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/stressor-response_fixed_ARTR.xlsx
+++ b/data/stressor-response_fixed_ARTR.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A01BE8E-87C0-4396-B7FB-A276BD69BF12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902F6CB4-2514-42BE-A522-E38820BEC223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2820" yWindow="12492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -15043,7 +15043,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15084,35 +15084,38 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="2" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="7" t="s">
         <v>35</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
@@ -15127,15 +15130,18 @@
         <v>12</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
@@ -15147,41 +15153,44 @@
         <v>7</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="A5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="7" t="s">
         <v>35</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>2</v>
@@ -15201,10 +15210,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2</v>
@@ -15216,7 +15225,7 @@
         <v>7</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>35</v>
@@ -15224,10 +15233,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>2</v>
@@ -15247,16 +15256,16 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>7</v>
@@ -15270,16 +15279,16 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>7</v>
@@ -15293,10 +15302,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>2</v>
@@ -15316,16 +15325,16 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>7</v>
@@ -15339,59 +15348,56 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="7" t="s">
+      <c r="A14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>2</v>
@@ -15406,36 +15412,30 @@
         <v>12</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="7" t="s">
+      <c r="A16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="D16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="F16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
